--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1479743.348006898</v>
+        <v>1576413.324491272</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>89.56099441449074</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>214.2896383919375</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>10.51974078772334</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,13 +870,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>15.95727827007512</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>285.2464770885155</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>141.297450311769</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>81.80445351869571</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>205.0849044383769</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>219.0570128933256</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>64.76935934992336</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>62.27914576410218</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>86.61795312280707</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>7.601081015447237</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471521</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2008,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>84.82420463792836</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>47.41254713315928</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873209</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>111.9187566128689</v>
+        <v>111.9187566128681</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>134.0389899623034</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>76.94242247934795</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>18.51539214791879</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>156.3460220671599</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>80.0012411808181</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>270.0697021486465</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>136.9973915638138</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>138.2178776215696</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3284,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>40.64444437213159</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>81.72898226868531</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3557,13 +3559,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3670,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>96.98176140267726</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>71.67037196991713</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.8314371278621</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.451579104186558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1512.612574238668</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C2" t="n">
-        <v>1512.612574238668</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>1512.612574238668</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>1126.824321640423</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>715.838416850816</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>297.8746087490028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2249.488733669009</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1995.726948307101</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1995.726948307101</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>1642.958293036987</v>
       </c>
       <c r="X2" t="n">
-        <v>2289.351746278601</v>
+        <v>1269.492534775907</v>
       </c>
       <c r="Y2" t="n">
-        <v>1899.21241430279</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="3">
@@ -4401,22 +4403,22 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.5125998356232</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="C4" t="n">
-        <v>247.5125998356232</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782191</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V4" t="n">
-        <v>468.3051789791533</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="W4" t="n">
-        <v>468.3051789791533</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="X4" t="n">
-        <v>468.3051789791533</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="Y4" t="n">
-        <v>247.5125998356232</v>
+        <v>257.1154545468206</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1529.2861479534</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1529.2861479534</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>1171.020449346649</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>1171.020449346649</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>760.0345445570417</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>342.0707364552286</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224074</v>
@@ -4577,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2300.662608371699</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1947.893953101585</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1574.428194840505</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4637,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9725150767609</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>520.9725150767609</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>616.0813039300605</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>388.7731165986622</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064346</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>520.9725150767609</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>520.9725150767609</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2631.72549571527</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2631.72549571527</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2300.662608371699</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1947.893953101585</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1574.428194840505</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>285.8510101265797</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C10" t="n">
-        <v>285.8510101265797</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D10" t="n">
-        <v>285.8510101265797</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>344.8407607629293</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>187.0923881954595</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.840561024597</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>513.840561024597</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>513.840561024597</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>513.840561024597</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W10" t="n">
-        <v>513.840561024597</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X10" t="n">
-        <v>285.8510101265797</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y10" t="n">
-        <v>285.8510101265797</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5020,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,22 +5044,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>818.2062848686776</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1682.725100522032</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5066,19 +5068,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5139,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,16 +5150,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5221,22 +5223,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.093193329805</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="X13" t="n">
         <v>1523.103642431788</v>
@@ -5255,46 +5257,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1670.680157531993</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2649.230460361821</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5306,16 +5308,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5358,7 +5360,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
         <v>794.2006632320243</v>
@@ -5373,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>270.9417306852383</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C16" t="n">
-        <v>270.9417306852383</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D16" t="n">
-        <v>270.9417306852383</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E16" t="n">
-        <v>270.9417306852383</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F16" t="n">
-        <v>270.9417306852383</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>103.2388940599573</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,49 +5439,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442091</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927052</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598119</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518532</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593986</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570255</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X16" t="n">
-        <v>673.3827746590082</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y16" t="n">
-        <v>452.5901955154781</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5494,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5519,13 +5521,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750058</v>
@@ -5540,19 +5542,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1023.336921276364</v>
+        <v>500.2948715744233</v>
       </c>
       <c r="C19" t="n">
-        <v>854.4007383484569</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="D19" t="n">
-        <v>704.2840989361212</v>
+        <v>181.2420492341807</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>181.2420492341807</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>181.2420492341807</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V19" t="n">
-        <v>1701.658977898817</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W19" t="n">
-        <v>1653.767516148151</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X19" t="n">
-        <v>1425.777965250134</v>
+        <v>902.7359155481931</v>
       </c>
       <c r="Y19" t="n">
-        <v>1204.985386106604</v>
+        <v>681.943336404663</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5738,40 +5740,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5783,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C21" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D21" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E21" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F21" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G21" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H21" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M21" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>619.8559841413803</v>
+        <v>3441.564240456397</v>
       </c>
       <c r="C22" t="n">
-        <v>619.8559841413803</v>
+        <v>3441.564240456397</v>
       </c>
       <c r="D22" t="n">
-        <v>619.8559841413803</v>
+        <v>3441.564240456397</v>
       </c>
       <c r="E22" t="n">
-        <v>619.8559841413803</v>
+        <v>3441.564240456397</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>3328.51499135249</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>3441.564240456397</v>
       </c>
       <c r="X22" t="n">
-        <v>619.8559841413803</v>
+        <v>3441.564240456397</v>
       </c>
       <c r="Y22" t="n">
-        <v>619.8559841413803</v>
+        <v>3441.564240456397</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5980,13 @@
         <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -5999,25 +6001,25 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6099,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506.8067350374723</v>
+        <v>3666.5180733378</v>
       </c>
       <c r="C25" t="n">
-        <v>506.8067350374723</v>
+        <v>3497.581890409893</v>
       </c>
       <c r="D25" t="n">
-        <v>506.8067350374723</v>
+        <v>3347.465250997557</v>
       </c>
       <c r="E25" t="n">
-        <v>506.8067350374723</v>
+        <v>3199.552157415164</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>3052.662209917254</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="T25" t="n">
-        <v>1788.793390196224</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="U25" t="n">
-        <v>1499.690523321867</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="V25" t="n">
-        <v>1245.00603511598</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="W25" t="n">
-        <v>955.5888650790198</v>
+        <v>4296.948668209587</v>
       </c>
       <c r="X25" t="n">
-        <v>727.5993141810025</v>
+        <v>4068.95911731157</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.8067350374723</v>
+        <v>3848.16653816804</v>
       </c>
     </row>
     <row r="26">
@@ -6203,25 +6205,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6242,34 +6244,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6309,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6345,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>895.1493900894825</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C28" t="n">
-        <v>726.2132071615756</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>576.0965677492399</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>428.1834741668467</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6409,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V28" t="n">
-        <v>1412.556111024461</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W28" t="n">
-        <v>1123.1389409875</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X28" t="n">
-        <v>895.1493900894825</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y28" t="n">
-        <v>895.1493900894825</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="29">
@@ -6440,25 +6442,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6479,13 +6481,13 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6494,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>1104.146255802443</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>935.2100728745359</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>785.0934334622001</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>637.180339879807</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>490.2903923818966</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>322.5875557566155</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>176.3703689744733</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6646,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>1506.587299776212</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>1285.794720632682</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
@@ -6704,13 +6706,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102192</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>720.69789701373</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C34" t="n">
-        <v>551.7617140858231</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D34" t="n">
-        <v>401.6450746734873</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>401.6450746734873</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>401.6450746734873</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>233.9422380482063</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839441</v>
@@ -6880,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230347</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.556111024461</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.1389409875</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X34" t="n">
-        <v>1123.1389409875</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y34" t="n">
-        <v>902.3463618439697</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6923,64 +6925,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7047,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>410.1538185715858</v>
+        <v>402.8778888732404</v>
       </c>
       <c r="C37" t="n">
-        <v>410.1538185715858</v>
+        <v>233.9417059453335</v>
       </c>
       <c r="D37" t="n">
-        <v>410.1538185715858</v>
+        <v>233.9417059453335</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1538185715858</v>
+        <v>233.9417059453335</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>233.9417059453335</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7117,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T37" t="n">
-        <v>1873.788938560577</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U37" t="n">
-        <v>1584.686071686221</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V37" t="n">
-        <v>1330.001583480334</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W37" t="n">
-        <v>1040.584413443373</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X37" t="n">
-        <v>812.5948625453557</v>
+        <v>805.3189328470103</v>
       </c>
       <c r="Y37" t="n">
-        <v>591.8022834018255</v>
+        <v>584.5263537034801</v>
       </c>
     </row>
     <row r="38">
@@ -7169,43 +7171,43 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7284,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>876.4469737784534</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C40" t="n">
-        <v>707.5107908505465</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D40" t="n">
-        <v>557.3941514382108</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E40" t="n">
-        <v>409.4810578558177</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7360,22 +7362,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V40" t="n">
-        <v>1445.473983799873</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W40" t="n">
-        <v>1156.056813762912</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X40" t="n">
-        <v>1156.056813762912</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1058.095438608693</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7394,7 +7396,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
@@ -7406,55 +7408,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
         <v>487.9678785494859</v>
@@ -7479,22 +7481,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1120.662598458018</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C43" t="n">
-        <v>951.7264155301116</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D43" t="n">
-        <v>801.6097761177758</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>314.8452970674332</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>167.9553495695228</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>167.9553495695228</v>
       </c>
       <c r="H43" t="n">
-        <v>192.886711630049</v>
+        <v>167.9553495695228</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7609,10 +7611,10 @@
         <v>1412.241807861856</v>
       </c>
       <c r="X43" t="n">
-        <v>1412.241807861856</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y43" t="n">
-        <v>1302.311063288258</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="44">
@@ -7625,67 +7627,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>1923.729615463053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7701,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7746,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7831,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.556111024461</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>1123.1389409875</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>1123.1389409875</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1123.1389409875</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8225,7 +8227,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516222</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,25 +8692,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>201.9664098701124</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>133.253057640026</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>283.31560276855</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>282.7041781993166</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9167,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9176,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9404,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400235</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9647,10 +9649,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>189.7998007892644</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9887,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10124,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10352,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11306,19 +11308,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>411.0304280898994</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -23476,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>75.50340795433985</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>137.1539338988735</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23706,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>83.32522828943894</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>81.20160362109986</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>33.50229141006236</v>
+        <v>33.50229141006314</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>31.98681829672483</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>142.6065267968212</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>126.9056558750125</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24649,13 +24651,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>63.20292720900929</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>16.35117922901999</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,19 +24888,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>16.14213605696636</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>7.757623350507004</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>81.33107165459955</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>125.3813638868966</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>137.8199670074839</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25600,22 +25602,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>121.6028919494175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>24.68204843992096</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>109.7532162242327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.3804010777507</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.8302410262</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.8302410262</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="15">
@@ -26314,34 +26316,34 @@
         <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651764</v>
       </c>
       <c r="E2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="F2" t="n">
+        <v>496352.2336087291</v>
+      </c>
+      <c r="G2" t="n">
         <v>496352.2336087289</v>
-      </c>
-      <c r="G2" t="n">
-        <v>496352.2336087288</v>
       </c>
       <c r="H2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="I2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087287</v>
       </c>
       <c r="J2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.233608729</v>
       </c>
       <c r="K2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="L2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="M2" t="n">
         <v>496352.2336087289</v>
@@ -26350,10 +26352,10 @@
         <v>496352.2336087289</v>
       </c>
       <c r="O2" t="n">
+        <v>496352.2336087288</v>
+      </c>
+      <c r="P2" t="n">
         <v>496352.2336087289</v>
-      </c>
-      <c r="P2" t="n">
-        <v>496352.233608729</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26433,16 +26435,16 @@
         <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
+        <v>25090.72367499379</v>
+      </c>
+      <c r="I4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="J4" t="n">
-        <v>25090.72367499382</v>
-      </c>
       <c r="K4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="L4" t="n">
         <v>25090.72367499381</v>
@@ -26451,7 +26453,7 @@
         <v>25090.72367499381</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="O4" t="n">
         <v>25090.72367499381</v>
@@ -26470,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26488,28 +26490,28 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-360740.3570405087</v>
+        <v>-360740.3570405085</v>
       </c>
       <c r="C6" t="n">
-        <v>229227.5221740362</v>
+        <v>229227.5221740355</v>
       </c>
       <c r="D6" t="n">
-        <v>229227.5221740362</v>
+        <v>229227.5221740355</v>
       </c>
       <c r="E6" t="n">
         <v>-352499.4223133852</v>
       </c>
       <c r="F6" t="n">
-        <v>374877.9916800214</v>
+        <v>374877.9916800216</v>
       </c>
       <c r="G6" t="n">
         <v>374877.9916800213</v>
       </c>
       <c r="H6" t="n">
+        <v>374877.9916800213</v>
+      </c>
+      <c r="I6" t="n">
+        <v>374877.9916800212</v>
+      </c>
+      <c r="J6" t="n">
+        <v>198454.7724874287</v>
+      </c>
+      <c r="K6" t="n">
         <v>374877.9916800215</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>374877.9916800215</v>
       </c>
-      <c r="J6" t="n">
-        <v>198454.7724874284</v>
-      </c>
-      <c r="K6" t="n">
-        <v>374877.9916800214</v>
-      </c>
-      <c r="L6" t="n">
-        <v>374877.9916800214</v>
-      </c>
       <c r="M6" t="n">
-        <v>245235.6768410767</v>
+        <v>245235.6768410766</v>
       </c>
       <c r="N6" t="n">
-        <v>374877.9916800214</v>
+        <v>374877.9916800215</v>
       </c>
       <c r="O6" t="n">
-        <v>374877.9916800214</v>
+        <v>374877.9916800213</v>
       </c>
       <c r="P6" t="n">
-        <v>374877.9916800215</v>
+        <v>374877.9916800213</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26753,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>234.3617783498664</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>2.158681965720319</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>135.9142218588458</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>236.1803650537529</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>38.67629567584169</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,10 +27672,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>186.4548081583659</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27777,16 +27779,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>130.3410854313232</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>20.62475095066029</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>146.215878877682</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>151.6789610077344</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>84.154816882467</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28028,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>48.34766866953116</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28378,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28509,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.733694752047692e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32078,7 +32080,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33041,7 +33043,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33743,7 +33745,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33989,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343419</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35267,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,25 +35412,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>539.1576964255129</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>384.0473624437454</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>738.9057171608822</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>835.0060136122281</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35726,7 +35728,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35805,7 +35807,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443223</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35887,7 +35889,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
@@ -35896,7 +35898,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36367,10 +36369,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36607,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36689,7 +36691,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36844,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36911,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37072,7 +37074,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37081,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37393,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
@@ -38026,19 +38028,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>963.3322635028109</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1576413.324491272</v>
+        <v>1570691.712523387</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836233</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>257.4243101005654</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>214.2896383919375</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>10.51974078772334</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>182.6518360207133</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>285.2464770885155</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>81.80445351869571</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>71.04317147903389</v>
       </c>
       <c r="C8" t="n">
-        <v>219.0570128933256</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.6638564154457</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>86.61795312280707</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>45.28085849688292</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>150.2062474346973</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>61.32615370389225</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471521</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>84.82420463792836</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>184.6961728433119</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873209</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>111.9187566128681</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>27.19292662790628</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0389899623034</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>156.3460220671599</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>164.3444657428955</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>80.0012411808181</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>12.84713688558917</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>138.2178776215696</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>88.26520231092775</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>124.6486541257148</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>40.64444437213159</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>71.67037196991727</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.67037196991713</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>122.1312989767518</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>882.8926947117852</v>
+        <v>843.3415311720269</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>474.3790142316151</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>474.3790142316151</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>474.3790142316151</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>467.4335134824117</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2249.488733669009</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1995.726948307101</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1995.726948307101</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1642.958293036987</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1269.492534775907</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y2" t="n">
-        <v>1269.492534775907</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.1154545468206</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>257.1154545468206</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>257.1154545468206</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511405</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1529.2861479534</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="C5" t="n">
-        <v>1529.2861479534</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.020449346649</v>
+        <v>1522.852542550656</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.020449346649</v>
+        <v>1137.064289952412</v>
       </c>
       <c r="F5" t="n">
-        <v>760.0345445570417</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>342.0707364552286</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1915.885988017521</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4658,31 +4658,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>616.0813039300605</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>388.7731165986622</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.823100673951</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>1584.823100673951</v>
+        <v>919.5755868835442</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C10" t="n">
-        <v>513.8405610245969</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>513.8405610245969</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>513.8405610245969</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>513.8405610245969</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>344.8407607629293</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>187.0923881954595</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5020,19 +5020,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5050,16 +5050,16 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
-        <v>3944.053400686433</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
-        <v>4338.827767043611</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5068,19 +5068,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U13" t="n">
-        <v>1674.827124689058</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1674.827124689058</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>1674.827124689058</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>901.3723255570251</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5287,19 +5287,19 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2536.15366264131</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3362.809616117416</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5308,16 +5308,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,16 +5387,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,49 +5439,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442091</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927052</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892254</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598119</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518532</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952192</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104707</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104707</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104707</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104707</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104707</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1956.343466104707</v>
+        <v>1102.012032582316</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.093193329805</v>
+        <v>812.5948625453557</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>812.5948625453557</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>591.8022834018255</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>500.2948715744233</v>
+        <v>560.8310435707792</v>
       </c>
       <c r="C19" t="n">
-        <v>331.3586886465164</v>
+        <v>391.8948606428723</v>
       </c>
       <c r="D19" t="n">
-        <v>181.2420492341807</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E19" t="n">
-        <v>181.2420492341807</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F19" t="n">
-        <v>181.2420492341807</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1769.781675353884</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1769.781675353884</v>
       </c>
       <c r="U19" t="n">
-        <v>1674.827124689058</v>
+        <v>1480.678808479527</v>
       </c>
       <c r="V19" t="n">
-        <v>1420.142636483171</v>
+        <v>1480.678808479527</v>
       </c>
       <c r="W19" t="n">
-        <v>1130.72546644621</v>
+        <v>1191.261638442566</v>
       </c>
       <c r="X19" t="n">
-        <v>902.7359155481931</v>
+        <v>963.2720875445491</v>
       </c>
       <c r="Y19" t="n">
-        <v>681.943336404663</v>
+        <v>742.479508401019</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807097</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468568</v>
@@ -5831,19 +5831,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5852,7 +5852,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5861,7 +5861,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5870,13 +5870,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3441.564240456397</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>3441.564240456397</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>3441.564240456397</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>3441.564240456397</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.768765573601</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>3985.665898699244</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>3730.981410493358</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>3441.564240456397</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>3441.564240456397</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>3441.564240456397</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,16 +5974,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -6001,40 +6001,40 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6074,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3666.5180733378</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C25" t="n">
-        <v>3497.581890409893</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="D25" t="n">
-        <v>3347.465250997557</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>3199.552157415164</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>3052.662209917254</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4586.365838246547</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>4586.365838246547</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>4586.365838246547</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>4586.365838246547</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>4296.948668209587</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X25" t="n">
-        <v>4068.95911731157</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y25" t="n">
-        <v>3848.16653816804</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143013</v>
@@ -6214,10 +6214,10 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001578</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6229,16 +6229,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L26" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>432.2000540015823</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736754</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1606.732307116217</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1606.732307116217</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V28" t="n">
-        <v>1352.04781891033</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W28" t="n">
-        <v>1062.630648873369</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="X28" t="n">
-        <v>834.6410979753522</v>
+        <v>1376.886455649646</v>
       </c>
       <c r="Y28" t="n">
-        <v>613.848518831822</v>
+        <v>1156.093876506116</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6466,16 +6466,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L29" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6542,13 +6542,13 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1104.146255802443</v>
+        <v>707.7209910686896</v>
       </c>
       <c r="C31" t="n">
-        <v>935.2100728745359</v>
+        <v>538.7848081407827</v>
       </c>
       <c r="D31" t="n">
-        <v>785.0934334622001</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E31" t="n">
-        <v>637.180339879807</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F31" t="n">
-        <v>490.2903923818966</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>322.5875557566155</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>176.3703689744733</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.366560159664</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.366560159664</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1943.366560159664</v>
       </c>
       <c r="U31" t="n">
-        <v>1734.57685067423</v>
+        <v>1654.263693285307</v>
       </c>
       <c r="V31" t="n">
-        <v>1734.57685067423</v>
+        <v>1399.57920507942</v>
       </c>
       <c r="W31" t="n">
-        <v>1734.57685067423</v>
+        <v>1110.162035042459</v>
       </c>
       <c r="X31" t="n">
-        <v>1506.587299776212</v>
+        <v>1110.162035042459</v>
       </c>
       <c r="Y31" t="n">
-        <v>1285.794720632682</v>
+        <v>889.3694558989293</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
@@ -6703,16 +6703,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L32" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6727,22 +6727,22 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y32" t="n">
         <v>2760.816196754296</v>
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
@@ -6782,7 +6782,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6794,10 +6794,10 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>263.2638710736754</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="C34" t="n">
-        <v>263.2638710736754</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="D34" t="n">
-        <v>263.2638710736754</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839441</v>
@@ -6858,10 +6858,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T34" t="n">
-        <v>1726.898991062666</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U34" t="n">
-        <v>1437.79612418831</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1183.111635982423</v>
+        <v>1074.800872373189</v>
       </c>
       <c r="W34" t="n">
-        <v>893.6944659454626</v>
+        <v>785.3837023362281</v>
       </c>
       <c r="X34" t="n">
-        <v>665.7049150474453</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="Y34" t="n">
-        <v>444.9123359039152</v>
+        <v>557.3941514382108</v>
       </c>
     </row>
     <row r="35">
@@ -6916,46 +6916,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>753.1470291944256</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1617.66584484778</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6964,19 +6964,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7019,10 +7019,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.8778888732404</v>
+        <v>368.3587133864207</v>
       </c>
       <c r="C37" t="n">
-        <v>233.9417059453335</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D37" t="n">
-        <v>233.9417059453335</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E37" t="n">
-        <v>233.9417059453335</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>233.9417059453335</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T37" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1577.410141987875</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.725653781988</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W37" t="n">
-        <v>1033.308483745028</v>
+        <v>998.7893082582079</v>
       </c>
       <c r="X37" t="n">
-        <v>805.3189328470103</v>
+        <v>770.7997573601906</v>
       </c>
       <c r="Y37" t="n">
-        <v>584.5263537034801</v>
+        <v>550.0071782166605</v>
       </c>
     </row>
     <row r="38">
@@ -7153,49 +7153,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7213,7 +7213,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
         <v>95.56103444839442</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1883.949150983575</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1629.264662777688</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>1339.847492740728</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>1111.85794184271</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>891.0653626991802</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7414,19 +7414,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3163.468180669545</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3666.440651548882</v>
       </c>
       <c r="P41" t="n">
         <v>4195.497197679678</v>
@@ -7493,10 +7493,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.811212990069</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>612.8750300621621</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>462.7583906498263</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>314.8452970674332</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>167.9553495695228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9553495695228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>167.9553495695228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1701.658977898817</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>1412.241807861856</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>1184.252256963839</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>963.4596778203087</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>557.6043516563539</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>388.668168728447</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1329.695560797219</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1075.011072591332</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>785.5939025543712</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>557.6043516563539</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>557.6043516563539</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8227,7 +8227,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142009</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8704,13 +8704,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>133.253057640026</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8935,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>282.7041781993166</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400235</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9649,10 +9649,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>189.7998007892644</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10357,13 +10357,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>201.9664098701128</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>136.2499899971307</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>135.6385654278964</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>134.5511216850544</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>75.50340795433985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>190.8114896199357</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828943894</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>81.20160362109986</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>5.072852488129968</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>33.50229141006314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>121.4225463903061</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>31.98681829672483</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,16 +24414,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>63.20292720900929</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>61.36518964614169</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>16.35117922901999</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>76.08501578445818</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>81.33107165459955</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>163.8724410129003</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>42.59816697291305</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>125.3813638868966</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25599,13 +25599,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>214.5414662356956</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>24.68204843992096</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>164.0805392288611</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.8302410262</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.8302410262</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.830241026</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.830241026</v>
       </c>
     </row>
     <row r="14">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651765</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651764</v>
+        <v>513151.1061651774</v>
       </c>
       <c r="E2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="F2" t="n">
-        <v>496352.2336087291</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="G2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="H2" t="n">
+        <v>496352.2336087287</v>
+      </c>
+      <c r="I2" t="n">
+        <v>496352.2336087288</v>
+      </c>
+      <c r="J2" t="n">
         <v>496352.2336087289</v>
       </c>
-      <c r="I2" t="n">
-        <v>496352.2336087287</v>
-      </c>
-      <c r="J2" t="n">
-        <v>496352.233608729</v>
-      </c>
       <c r="K2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="L2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="M2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.233608729</v>
       </c>
       <c r="N2" t="n">
         <v>496352.2336087289</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934063</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,31 +26426,31 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="J4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="K4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="L4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="J4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="L4" t="n">
-        <v>25090.72367499381</v>
-      </c>
       <c r="M4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="N4" t="n">
         <v>25090.72367499382</v>
@@ -26459,7 +26459,7 @@
         <v>25090.72367499381</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26502,7 +26502,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-360740.3570405085</v>
+        <v>-360740.3570405088</v>
       </c>
       <c r="C6" t="n">
-        <v>229227.5221740355</v>
+        <v>229227.522174036</v>
       </c>
       <c r="D6" t="n">
-        <v>229227.5221740355</v>
+        <v>229227.5221740364</v>
       </c>
       <c r="E6" t="n">
-        <v>-352499.4223133852</v>
+        <v>-353171.3772156429</v>
       </c>
       <c r="F6" t="n">
-        <v>374877.9916800216</v>
+        <v>374206.0367777633</v>
       </c>
       <c r="G6" t="n">
-        <v>374877.9916800213</v>
+        <v>374206.0367777635</v>
       </c>
       <c r="H6" t="n">
-        <v>374877.9916800213</v>
+        <v>374206.0367777633</v>
       </c>
       <c r="I6" t="n">
-        <v>374877.9916800212</v>
+        <v>374206.0367777634</v>
       </c>
       <c r="J6" t="n">
-        <v>198454.7724874287</v>
+        <v>197782.8175851707</v>
       </c>
       <c r="K6" t="n">
-        <v>374877.9916800215</v>
+        <v>374206.0367777633</v>
       </c>
       <c r="L6" t="n">
-        <v>374877.9916800215</v>
+        <v>374206.0367777635</v>
       </c>
       <c r="M6" t="n">
-        <v>245235.6768410766</v>
+        <v>244563.7219388188</v>
       </c>
       <c r="N6" t="n">
-        <v>374877.9916800215</v>
+        <v>374206.0367777632</v>
       </c>
       <c r="O6" t="n">
-        <v>374877.9916800213</v>
+        <v>374206.0367777634</v>
       </c>
       <c r="P6" t="n">
-        <v>374877.9916800213</v>
+        <v>374206.0367777635</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26755,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,34 +26968,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762113</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>156.3598599202296</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2.158681965720319</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1681237664919</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>135.9142218588458</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>224.2242097209982</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>38.67629567584169</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>130.3410854313232</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>311.6906701844467</v>
       </c>
       <c r="C8" t="n">
-        <v>146.215878877682</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831821</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>48.34766866953116</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28511,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.733694752047692e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,7 +32080,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33991,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>384.0473624437454</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35655,22 +35655,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>835.0060136122281</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35807,7 +35807,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443223</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427827</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282428</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36369,10 +36369,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>742.1016362021759</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>740.8875257003393</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>473.4412765525311</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37782,22 +37782,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>534.4005516472682</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1570691.712523387</v>
+        <v>1574097.203647836</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836233</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>257.4243101005654</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>191.6468735142586</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.66385641544537</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>182.6518360207133</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>146.3014312583105</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>206.1608002224376</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71.04317147903389</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>43.80431246487594</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.6638564154457</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>133.2137407186086</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.28085849688292</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>192.9358339830517</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>47.46616726055766</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>61.32615370389225</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>184.6961728433119</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
     <row r="20">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>27.19292662790628</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>164.3444657428955</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>148.703031329107</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>12.84713688558917</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>139.6430868570235</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3246,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>88.26520231092775</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>124.6486541257148</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>270.0697021486465</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>134.0389899623034</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>111.2106433979489</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>160.4950208782496</v>
       </c>
       <c r="U46" t="n">
-        <v>122.1312989767518</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>843.3415311720269</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="C2" t="n">
-        <v>474.3790142316151</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="D2" t="n">
-        <v>474.3790142316151</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="E2" t="n">
-        <v>474.3790142316151</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="F2" t="n">
-        <v>467.4335134824117</v>
+        <v>818.9554664465411</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>400.991658344728</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.8624625746712</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1881.118241157406</v>
+        <v>1725.724578248621</v>
       </c>
       <c r="C5" t="n">
-        <v>1881.118241157406</v>
+        <v>1356.76206130821</v>
       </c>
       <c r="D5" t="n">
-        <v>1522.852542550656</v>
+        <v>998.4963627014592</v>
       </c>
       <c r="E5" t="n">
-        <v>1137.064289952412</v>
+        <v>612.7081101032149</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>201.7222053136074</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.118241157406</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y5" t="n">
-        <v>1881.118241157406</v>
+        <v>2112.324418312743</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4658,31 +4658,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>519.8857516585174</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>818.8658378359717</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>818.8658378359717</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>460.6001392292212</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.811886630977</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2652.90231075067</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2652.90231075067</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2652.90231075067</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2321.839423407099</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1969.070768136985</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859356</v>
+        <v>1595.605009875905</v>
       </c>
       <c r="Y8" t="n">
-        <v>919.5755868835442</v>
+        <v>1205.465677900093</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064346</v>
+        <v>188.5023158795651</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>188.5023158795651</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>409.2948950230952</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>409.2948950230952</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>188.5023158795651</v>
       </c>
     </row>
     <row r="11">
@@ -5047,13 +5047,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.328657580449</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750059</v>
@@ -5068,7 +5068,7 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
@@ -5120,19 +5120,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
         <v>2125.961311426849</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>855.6340846510827</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="C13" t="n">
-        <v>686.6979017231758</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="D13" t="n">
-        <v>536.5812623108401</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E13" t="n">
-        <v>388.668168728447</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
         <v>241.7782212305366</v>
@@ -5241,10 +5241,10 @@
         <v>901.3723255570251</v>
       </c>
       <c r="X13" t="n">
-        <v>901.3723255570251</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="Y13" t="n">
-        <v>901.3723255570251</v>
+        <v>706.4876447660638</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5278,19 +5278,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
         <v>3482.142110232732</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089883</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468559</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>410.1538185715858</v>
+        <v>902.3463618439697</v>
       </c>
       <c r="C16" t="n">
-        <v>410.1538185715858</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D16" t="n">
-        <v>410.1538185715858</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>1102.012032582316</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W16" t="n">
-        <v>812.5948625453557</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X16" t="n">
-        <v>812.5948625453557</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y16" t="n">
-        <v>591.8022834018255</v>
+        <v>902.3463618439697</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5503,13 +5503,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5521,22 +5521,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5594,13 +5594,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5615,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5624,7 +5624,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447819</v>
@@ -5633,7 +5633,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.8310435707792</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8948606428723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1769.781675353884</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1769.781675353884</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1480.678808479527</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.678808479527</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.261638442566</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2720875445491</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.479508401019</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,55 +5728,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5822,22 +5822,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5940,22 +5940,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,7 +5974,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5986,7 +5986,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6059,13 +6059,13 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>270.9417306852383</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>270.9417306852383</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570255</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>673.3827746590082</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.5901955154781</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6296,34 +6296,34 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>974.4454116758762</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C28" t="n">
-        <v>805.5092287479694</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D28" t="n">
-        <v>655.3925893356336</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E28" t="n">
-        <v>507.4794957532405</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.890966501056</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1542.890966501056</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>1376.886455649646</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>1156.093876506116</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6560,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.7209910686896</v>
+        <v>560.358900722199</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7848081407827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D31" t="n">
-        <v>388.668168728447</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E31" t="n">
-        <v>388.668168728447</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1943.366560159664</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1943.366560159664</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1943.366560159664</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1654.263693285307</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1399.57920507942</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>1110.162035042459</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.162035042459</v>
+        <v>962.7999446959689</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3694558989293</v>
+        <v>742.0073655524387</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972662</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1682.725100522033</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2216.257005193958</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420603</v>
+        <v>3196.009277420605</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6770,34 +6770,34 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>557.3941514382108</v>
+        <v>333.9403347179516</v>
       </c>
       <c r="C34" t="n">
-        <v>557.3941514382108</v>
+        <v>333.9403347179516</v>
       </c>
       <c r="D34" t="n">
-        <v>557.3941514382108</v>
+        <v>333.9403347179516</v>
       </c>
       <c r="E34" t="n">
-        <v>409.4810578558177</v>
+        <v>333.9403347179516</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>333.9403347179516</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>333.9403347179516</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1074.800872373189</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W34" t="n">
-        <v>785.3837023362281</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X34" t="n">
-        <v>557.3941514382108</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y34" t="n">
-        <v>557.3941514382108</v>
+        <v>515.5887995481913</v>
       </c>
     </row>
     <row r="35">
@@ -6913,55 +6913,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>753.1470291944256</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1617.66584484778</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2151.197749519704</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3130.950021746351</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
         <v>4667.761053946815</v>
@@ -6973,16 +6973,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>368.3587133864207</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C37" t="n">
-        <v>242.4509819463048</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D37" t="n">
-        <v>242.4509819463048</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V37" t="n">
-        <v>1288.206478295169</v>
+        <v>1796.967499402969</v>
       </c>
       <c r="W37" t="n">
-        <v>998.7893082582079</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X37" t="n">
-        <v>770.7997573601906</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y37" t="n">
-        <v>550.0071782166605</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="38">
@@ -7153,67 +7153,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7362,22 +7362,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1650.184003770974</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.715908442899</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N41" t="n">
-        <v>3163.468180669545</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O41" t="n">
-        <v>3666.440651548882</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4302.335344088783</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>521.8150410860691</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7599,22 +7599,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423046</v>
+        <v>703.4635059163088</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>351.3014367967911</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>685.1208104866375</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1549.639626139992</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2528.189928969821</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>557.6043516563539</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="C46" t="n">
-        <v>388.668168728447</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D46" t="n">
-        <v>388.668168728447</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E46" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839441</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1602.541399226227</v>
       </c>
       <c r="U46" t="n">
-        <v>1329.695560797219</v>
+        <v>1313.438532351871</v>
       </c>
       <c r="V46" t="n">
-        <v>1075.011072591332</v>
+        <v>1313.438532351871</v>
       </c>
       <c r="W46" t="n">
-        <v>785.5939025543712</v>
+        <v>1024.02136231491</v>
       </c>
       <c r="X46" t="n">
-        <v>557.6043516563539</v>
+        <v>796.0318114168931</v>
       </c>
       <c r="Y46" t="n">
-        <v>557.6043516563539</v>
+        <v>575.239232273363</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142009</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415606</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8704,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8935,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>64.28566532692525</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9169,25 +9169,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>77.3579543087709</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400261</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400261</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10351,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>295.482211849399</v>
       </c>
       <c r="M32" t="n">
-        <v>201.9664098701128</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>136.2499899971307</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>135.6385654278964</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>104.397671054747</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>67.53663776704161</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.5511216850544</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>32.7738214059855</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>119.7806538380702</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>190.8114896199357</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>5.072852488129968</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>121.4225463903061</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>61.36518964614169</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>18.5437897695208</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>76.08501578445818</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>5.11192805729732</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>163.8724410129003</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>42.59816697291305</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>16.14213605696636</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>118.0986533615246</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>56.03617770067893</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>59.05392839791958</v>
       </c>
       <c r="U46" t="n">
-        <v>164.0805392288611</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.8302410262</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>917731.830241026</v>
+        <v>917731.8302410262</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>917731.830241026</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.830241026</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.8302410262</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.233608729</v>
       </c>
       <c r="F2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="G2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="H2" t="n">
-        <v>496352.2336087287</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="I2" t="n">
         <v>496352.2336087288</v>
@@ -26340,19 +26340,19 @@
         <v>496352.2336087289</v>
       </c>
       <c r="K2" t="n">
+        <v>496352.2336087289</v>
+      </c>
+      <c r="L2" t="n">
         <v>496352.2336087288</v>
       </c>
-      <c r="L2" t="n">
-        <v>496352.2336087289</v>
-      </c>
       <c r="M2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="N2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="O2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="P2" t="n">
         <v>496352.2336087289</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934063</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="K4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="L4" t="n">
         <v>25090.72367499383</v>
       </c>
-      <c r="K4" t="n">
-        <v>25090.72367499383</v>
-      </c>
-      <c r="L4" t="n">
-        <v>25090.72367499382</v>
-      </c>
       <c r="M4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="O4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26487,28 +26487,28 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-360740.3570405088</v>
+        <v>-360740.3570405085</v>
       </c>
       <c r="C6" t="n">
-        <v>229227.522174036</v>
+        <v>229227.5221740363</v>
       </c>
       <c r="D6" t="n">
-        <v>229227.5221740364</v>
+        <v>229227.5221740362</v>
       </c>
       <c r="E6" t="n">
-        <v>-353171.3772156429</v>
+        <v>-352566.6178036111</v>
       </c>
       <c r="F6" t="n">
-        <v>374206.0367777633</v>
+        <v>374810.7961897954</v>
       </c>
       <c r="G6" t="n">
-        <v>374206.0367777635</v>
+        <v>374810.7961897955</v>
       </c>
       <c r="H6" t="n">
-        <v>374206.0367777633</v>
+        <v>374810.7961897956</v>
       </c>
       <c r="I6" t="n">
-        <v>374206.0367777634</v>
+        <v>374810.7961897956</v>
       </c>
       <c r="J6" t="n">
-        <v>197782.8175851707</v>
+        <v>198387.5769972026</v>
       </c>
       <c r="K6" t="n">
-        <v>374206.0367777633</v>
+        <v>374810.7961897956</v>
       </c>
       <c r="L6" t="n">
-        <v>374206.0367777635</v>
+        <v>374810.7961897955</v>
       </c>
       <c r="M6" t="n">
-        <v>244563.7219388188</v>
+        <v>245168.4813508509</v>
       </c>
       <c r="N6" t="n">
-        <v>374206.0367777632</v>
+        <v>374810.7961897956</v>
       </c>
       <c r="O6" t="n">
-        <v>374206.0367777634</v>
+        <v>374810.7961897956</v>
       </c>
       <c r="P6" t="n">
-        <v>374206.0367777635</v>
+        <v>374810.7961897956</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762113</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>156.3598599202296</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>132.2758992500985</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1681237664919</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>224.2242097209982</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>267.4827387624845</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>80.12107401954009</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>311.6906701844467</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.6114003440956</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831821</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>15.40173229960371</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775188</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M11" t="n">
         <v>988.434649323059</v>
@@ -35424,7 +35424,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193716</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
@@ -35655,13 +35655,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>616.5875007398367</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35889,25 +35889,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>629.6597897216824</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282451</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282451</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>751.0723262417312</v>
       </c>
       <c r="M32" t="n">
-        <v>740.8875257003393</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>473.4412765525311</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>534.4005516472682</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>355.1919758584665</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>258.3236387357542</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38031,7 +38031,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38040,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
